--- a/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -482,7 +482,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="22.520625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="21.750625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="14.060625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -114,7 +114,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -126,13 +126,6 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF0000FF"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
@@ -482,7 +475,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="21.750625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="22.520625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="14.060625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -31,7 +31,7 @@
         <x:vertAlign val="baseline"/>
         <x:sz val="11"/>
         <x:color rgb="FFFF0000"/>
-        <x:rFont val="Broadway"/>
+        <x:rFont val="Garamond"/>
         <x:family val="2"/>
       </x:rPr>
       <x:t>show</x:t>
@@ -475,7 +475,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="22.520625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="21.160625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="14.060625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -31,7 +31,7 @@
         <x:vertAlign val="baseline"/>
         <x:sz val="11"/>
         <x:color rgb="FFFF0000"/>
-        <x:rFont val="Garamond"/>
+        <x:rFont val="Calibri"/>
         <x:family val="2"/>
       </x:rPr>
       <x:t>show</x:t>
@@ -475,7 +475,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="21.160625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="21.380625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="14.060625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -31,7 +31,7 @@
         <x:vertAlign val="baseline"/>
         <x:sz val="11"/>
         <x:color rgb="FFFF0000"/>
-        <x:rFont val="Calibri"/>
+        <x:rFont val="Courier"/>
         <x:family val="2"/>
       </x:rPr>
       <x:t>show</x:t>
@@ -475,7 +475,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="21.380625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="21.750625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="14.060625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -31,7 +31,7 @@
         <x:vertAlign val="baseline"/>
         <x:sz val="11"/>
         <x:color rgb="FFFF0000"/>
-        <x:rFont val="Broadway"/>
+        <x:rFont val="Courier"/>
         <x:family val="2"/>
       </x:rPr>
       <x:t>show</x:t>
@@ -114,7 +114,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -126,13 +126,6 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF0000FF"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>

--- a/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
     <x:r>
       <x:rPr>
@@ -105,6 +105,74 @@
   </x:si>
   <x:si>
     <x:t>" BIG " is Bold.</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF008000"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Some</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> rich text </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:i/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>with a gray background</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF008000"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>Some</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF0000FF"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> rich text </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:i/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:rFont val="Calibri"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>with a gray background</x:t>
+    </x:r>
   </x:si>
 </x:sst>
 </file>
@@ -130,13 +198,19 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FF808080"/>
+        <x:bgColor rgb="FF808080"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
   <x:borders count="1">
     <x:border diagonalUp="0" diagonalDown="0">
@@ -157,20 +231,27 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -469,14 +550,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B3"/>
+  <x:dimension ref="A1:B5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="21.750625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.060625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="34.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -492,6 +572,14 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -262,7 +262,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -545,7 +545,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -208,7 +208,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF808080"/>
-        <x:bgColor rgb="FF808080"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Styles/UsingRichText.xlsx
@@ -555,7 +555,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="34.710625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="28.030625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
